--- a/src/main/java/org/example/newClass.xlsx
+++ b/src/main/java/org/example/newClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Tester\untitled1\src\main\java\org\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02FA44-56C7-4F86-9BB7-9797C5C511DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE28E6-F6DF-47F4-83E3-3D3F1405A436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>16 Product(s) found</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4 Product(s) found</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>$ 35.80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,26 +368,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>